--- a/data.xlsx
+++ b/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
   <si>
     <t>Distance</t>
   </si>
@@ -25,27 +25,6 @@
     <t>SpliceLoss</t>
   </si>
   <si>
-    <t>Peak</t>
-  </si>
-  <si>
-    <t>EndOfCurr</t>
-  </si>
-  <si>
-    <t>EndOfPrev</t>
-  </si>
-  <si>
-    <t>Slope</t>
-  </si>
-  <si>
-    <t>StartOfCurr</t>
-  </si>
-  <si>
-    <t>StartOfNext</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
     <t>0.000</t>
   </si>
   <si>
@@ -116,87 +95,6 @@
   </si>
   <si>
     <t>1.003</t>
-  </si>
-  <si>
-    <t>0.003</t>
-  </si>
-  <si>
-    <t>0.632</t>
-  </si>
-  <si>
-    <t>0.988</t>
-  </si>
-  <si>
-    <t>1.132</t>
-  </si>
-  <si>
-    <t>1.264</t>
-  </si>
-  <si>
-    <t>1.283</t>
-  </si>
-  <si>
-    <t>1.618</t>
-  </si>
-  <si>
-    <t>1.638</t>
-  </si>
-  <si>
-    <t>1.894</t>
-  </si>
-  <si>
-    <t>1.916</t>
-  </si>
-  <si>
-    <t>0.012</t>
-  </si>
-  <si>
-    <t>0.730</t>
-  </si>
-  <si>
-    <t>1.139</t>
-  </si>
-  <si>
-    <t>1.277</t>
-  </si>
-  <si>
-    <t>1.371</t>
-  </si>
-  <si>
-    <t>1.625</t>
-  </si>
-  <si>
-    <t>1.643</t>
-  </si>
-  <si>
-    <t>1.899</t>
-  </si>
-  <si>
-    <t>1.919</t>
-  </si>
-  <si>
-    <t>0.776</t>
-  </si>
-  <si>
-    <t>1.700</t>
-  </si>
-  <si>
-    <t>0.931</t>
-  </si>
-  <si>
-    <t>0.250</t>
-  </si>
-  <si>
-    <t>2.502</t>
-  </si>
-  <si>
-    <t>1F9999LS {auto} reflection</t>
-  </si>
-  <si>
-    <t>2F9999LS {auto} multiple</t>
-  </si>
-  <si>
-    <t>1E9999LS {auto} reflection</t>
   </si>
   <si>
     <t xml:space="preserve">OTDR data </t>
@@ -297,20 +195,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>304813</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>38107</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="fig.jpg"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="fig.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -323,8 +221,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7924800" y="1714500"/>
-          <a:ext cx="6400800" cy="3657600"/>
+          <a:off x="4191000" y="571500"/>
+          <a:ext cx="6400813" cy="3657607"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -621,50 +519,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="4" width="15.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:8">
       <c r="H1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="B6">
         <v>2.501728481234029</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -674,346 +575,115 @@
       <c r="C10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="1" t="s">
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
         <v>7</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
         <v>8</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" t="s">
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B18" t="s">
         <v>20</v>
       </c>
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="C18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>11</v>
       </c>
-      <c r="J11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="B19" t="s">
         <v>21</v>
       </c>
-      <c r="C12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" t="s">
-        <v>44</v>
-      </c>
-      <c r="G12" t="s">
-        <v>53</v>
-      </c>
-      <c r="H12" t="s">
-        <v>11</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="C19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
         <v>12</v>
       </c>
-      <c r="J12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="B20" t="s">
         <v>22</v>
       </c>
-      <c r="C13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" t="s">
-        <v>45</v>
-      </c>
-      <c r="G13" t="s">
-        <v>54</v>
-      </c>
-      <c r="H13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I13" t="s">
-        <v>13</v>
-      </c>
-      <c r="J13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" t="s">
-        <v>46</v>
-      </c>
-      <c r="F14" t="s">
-        <v>33</v>
-      </c>
-      <c r="G14" t="s">
-        <v>54</v>
-      </c>
-      <c r="H14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" t="s">
-        <v>14</v>
-      </c>
-      <c r="J14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" t="s">
-        <v>46</v>
-      </c>
-      <c r="G15" t="s">
-        <v>55</v>
-      </c>
-      <c r="H15" t="s">
-        <v>14</v>
-      </c>
-      <c r="I15" t="s">
-        <v>15</v>
-      </c>
-      <c r="J15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" t="s">
-        <v>48</v>
-      </c>
-      <c r="F16" t="s">
-        <v>47</v>
-      </c>
-      <c r="G16" t="s">
-        <v>54</v>
-      </c>
-      <c r="H16" t="s">
-        <v>15</v>
-      </c>
-      <c r="I16" t="s">
-        <v>16</v>
-      </c>
-      <c r="J16" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" t="s">
-        <v>49</v>
-      </c>
-      <c r="F17" t="s">
-        <v>48</v>
-      </c>
-      <c r="G17" t="s">
-        <v>54</v>
-      </c>
-      <c r="H17" t="s">
-        <v>16</v>
-      </c>
-      <c r="I17" t="s">
-        <v>17</v>
-      </c>
-      <c r="J17" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" t="s">
-        <v>50</v>
-      </c>
-      <c r="F18" t="s">
-        <v>49</v>
-      </c>
-      <c r="G18" t="s">
-        <v>56</v>
-      </c>
-      <c r="H18" t="s">
-        <v>17</v>
-      </c>
-      <c r="I18" t="s">
-        <v>18</v>
-      </c>
-      <c r="J18" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" t="s">
-        <v>42</v>
-      </c>
-      <c r="E19" t="s">
-        <v>51</v>
-      </c>
-      <c r="F19" t="s">
-        <v>50</v>
-      </c>
-      <c r="G19" t="s">
-        <v>54</v>
-      </c>
-      <c r="H19" t="s">
-        <v>18</v>
-      </c>
-      <c r="I19" t="s">
-        <v>19</v>
-      </c>
-      <c r="J19" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>29</v>
-      </c>
       <c r="C20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E20" t="s">
-        <v>52</v>
-      </c>
-      <c r="F20" t="s">
-        <v>51</v>
-      </c>
-      <c r="G20" t="s">
-        <v>54</v>
-      </c>
-      <c r="H20" t="s">
-        <v>19</v>
-      </c>
-      <c r="I20" t="s">
-        <v>57</v>
-      </c>
-      <c r="J20" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
